--- a/Noman & Co.xlsx
+++ b/Noman & Co.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Order Detail</t>
   </si>
@@ -47,12 +47,45 @@
   <si>
     <t>samsung glass protect</t>
   </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>samsung charge note 3</t>
+  </si>
+  <si>
+    <t>total bill</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>samsung s3 battery</t>
+  </si>
+  <si>
+    <t>kaymu pay my order free</t>
+  </si>
+  <si>
+    <t>Samsung power bank</t>
+  </si>
+  <si>
+    <t>samsung fast charge</t>
+  </si>
+  <si>
+    <t>samsung s4 standed battery</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +93,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF414141"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,12 +132,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G483"/>
+  <dimension ref="A2:H483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,9 +457,10 @@
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -428,13 +479,16 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1230</v>
+        <v>1050</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -446,16 +500,19 @@
         <v>180</v>
       </c>
       <c r="F3">
-        <f>(B3-E3)*0.15</f>
+        <f t="shared" ref="F3:F9" si="0">B3*0.15</f>
         <v>157.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>980</v>
+        <v>799</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -467,16 +524,23 @@
         <v>180</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="0">(B4-E4)*0.15</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>119.85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f>SUM(F3:F6)</f>
+        <v>505.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1150</v>
+        <v>987</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -487,2882 +551,3094 @@
       <c r="E5" s="2">
         <v>160</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>148.5</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148.04999999999998</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>535</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>250</v>
+      </c>
+      <c r="E6" s="2">
+        <v>130</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7">
+        <v>80.25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>509</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2">
+        <v>130</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1429</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>900</v>
+      </c>
+      <c r="E8" s="2">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8">
+        <v>214.35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>489</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>300</v>
+      </c>
+      <c r="E9" s="2">
+        <v>180</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>620</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>300</v>
+      </c>
+      <c r="E10" s="4">
+        <v>130</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F67" si="1">(B10-E10)*0.15</f>
+        <v>73.5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>620</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>400</v>
+      </c>
+      <c r="E11" s="2">
+        <v>130</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>73.5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>630</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>400</v>
+      </c>
+      <c r="E12" s="2">
+        <v>160</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>699</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>200</v>
+      </c>
+      <c r="E14" s="4">
+        <v>130</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>85.35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>859</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>600</v>
+      </c>
+      <c r="E15" s="4">
+        <v>180</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>101.85</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>500</v>
+      </c>
+      <c r="E16" s="3">
+        <v>160</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>133.5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>999</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>500</v>
+      </c>
+      <c r="E17" s="4">
+        <v>300</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>104.85</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="1">(B68-E68)*0.15</f>
+        <f t="shared" ref="F68:F131" si="2">(B68-E68)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132">
-        <f t="shared" ref="F132:F195" si="2">(B132-E132)*0.15</f>
+        <f t="shared" ref="F132:F195" si="3">(B132-E132)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F196">
-        <f t="shared" ref="F196:F259" si="3">(B196-E196)*0.15</f>
+        <f t="shared" ref="F196:F259" si="4">(B196-E196)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F260">
-        <f t="shared" ref="F260:F323" si="4">(B260-E260)*0.15</f>
+        <f t="shared" ref="F260:F323" si="5">(B260-E260)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F323">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F324">
-        <f t="shared" ref="F324:F387" si="5">(B324-E324)*0.15</f>
+        <f t="shared" ref="F324:F387" si="6">(B324-E324)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F386">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F387">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F388">
-        <f t="shared" ref="F388:F451" si="6">(B388-E388)*0.15</f>
+        <f t="shared" ref="F388:F451" si="7">(B388-E388)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F390">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F391">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F392">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F394">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F395">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F396">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F398">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F399">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F402">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F403">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F404">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F408">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F409">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F410">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F412">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F413">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F414">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F415">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F417">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F418">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F419">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F420">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F421">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F423">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F424">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F425">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F426">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F428">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F429">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F430">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F431">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F433">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F434">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F436">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F437">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F438">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F439">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F440">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F441">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F442">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F443">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F444">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F445">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F446">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F447">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F448">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F449">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F450">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F451">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F452">
-        <f t="shared" ref="F452:F483" si="7">(B452-E452)*0.15</f>
+        <f t="shared" ref="F452:F483" si="8">(B452-E452)*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F453">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F454">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F455">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F456">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F457">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F458">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F459">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F460">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F461">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F462">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F463">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F464">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F465">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F466">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F467">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F468">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F469">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F470">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F471">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F472">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F473">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F474">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F475">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F476">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F477">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F478">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F479">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F480">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F481">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F482">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F483">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
